--- a/Non-Life Stochastic Projection Example.xlsx
+++ b/Non-Life Stochastic Projection Example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikolasethore/xldiff-test-excelfiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C53A63-2E06-0644-9AA1-0A6E16AEBCDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9688ADB-C728-E344-B8D0-9C4BDDC4DCB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" tabRatio="775" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2944,7 +2944,7 @@
   <dimension ref="B2:J60"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4096,11 +4096,11 @@
         <v>#NAME?</v>
       </c>
       <c r="F50" s="14" t="e">
-        <f t="shared" ref="C50:H50" ca="1" si="39">F10-F30</f>
+        <f t="shared" ref="F50:H50" ca="1" si="39">F10-F30</f>
         <v>#NAME?</v>
       </c>
       <c r="G50" s="14" t="e">
-        <f t="shared" ca="1" si="39"/>
+        <f ca="1">G10-G30+32</f>
         <v>#NAME?</v>
       </c>
       <c r="H50" s="15" t="e">

--- a/Non-Life Stochastic Projection Example.xlsx
+++ b/Non-Life Stochastic Projection Example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikolasethore/xldiff-test-excelfiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C53A63-2E06-0644-9AA1-0A6E16AEBCDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B7E842-7120-344B-B250-B940E2477F2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" tabRatio="775" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2944,7 +2944,7 @@
   <dimension ref="B2:J60"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4096,11 +4096,11 @@
         <v>#NAME?</v>
       </c>
       <c r="F50" s="14" t="e">
-        <f t="shared" ref="C50:H50" ca="1" si="39">F10-F30</f>
+        <f ca="1">F10-F30+10</f>
         <v>#NAME?</v>
       </c>
       <c r="G50" s="14" t="e">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ref="F50:H50" ca="1" si="39">G10-G30</f>
         <v>#NAME?</v>
       </c>
       <c r="H50" s="15" t="e">

--- a/Non-Life Stochastic Projection Example.xlsx
+++ b/Non-Life Stochastic Projection Example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikolasethore/xldiff-test-excelfiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9688ADB-C728-E344-B8D0-9C4BDDC4DCB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C53A63-2E06-0644-9AA1-0A6E16AEBCDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" tabRatio="775" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2944,7 +2944,7 @@
   <dimension ref="B2:J60"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4096,11 +4096,11 @@
         <v>#NAME?</v>
       </c>
       <c r="F50" s="14" t="e">
-        <f t="shared" ref="F50:H50" ca="1" si="39">F10-F30</f>
+        <f t="shared" ref="C50:H50" ca="1" si="39">F10-F30</f>
         <v>#NAME?</v>
       </c>
       <c r="G50" s="14" t="e">
-        <f ca="1">G10-G30+32</f>
+        <f t="shared" ca="1" si="39"/>
         <v>#NAME?</v>
       </c>
       <c r="H50" s="15" t="e">

--- a/Non-Life Stochastic Projection Example.xlsx
+++ b/Non-Life Stochastic Projection Example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikolasethore/xldiff-test-excelfiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C53A63-2E06-0644-9AA1-0A6E16AEBCDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D01B96CC-0A05-A145-932D-8EB336862501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" tabRatio="775" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2943,8 +2943,8 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="B2:J60"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3626,23 +3626,23 @@
         <v>580000</v>
       </c>
       <c r="D30" s="14" t="e">
-        <f t="shared" ref="D30" ca="1" si="16">SUM(D24:D25,D27:D29)</f>
+        <f ca="1">SUM(D24:D25,D27:D29)+2018</f>
         <v>#NAME?</v>
       </c>
       <c r="E30" s="14" t="e">
-        <f t="shared" ref="E30" ca="1" si="17">SUM(E24:E25,E27:E29)</f>
+        <f t="shared" ref="E30" ca="1" si="16">SUM(E24:E25,E27:E29)</f>
         <v>#NAME?</v>
       </c>
       <c r="F30" s="14" t="e">
-        <f t="shared" ref="F30" ca="1" si="18">SUM(F24:F25,F27:F29)</f>
+        <f t="shared" ref="F30" ca="1" si="17">SUM(F24:F25,F27:F29)</f>
         <v>#NAME?</v>
       </c>
       <c r="G30" s="14" t="e">
-        <f t="shared" ref="G30" ca="1" si="19">SUM(G24:G25,G27:G29)</f>
+        <f t="shared" ref="G30" ca="1" si="18">SUM(G24:G25,G27:G29)</f>
         <v>#NAME?</v>
       </c>
       <c r="H30" s="15" t="e">
-        <f t="shared" ref="H30" ca="1" si="20">SUM(H24:H25,H27:H29)</f>
+        <f t="shared" ref="H30" ca="1" si="19">SUM(H24:H25,H27:H29)</f>
         <v>#NAME?</v>
       </c>
     </row>
@@ -3683,23 +3683,23 @@
         <v>2500000</v>
       </c>
       <c r="D34" s="17">
-        <f t="shared" ref="D34:H34" si="21">D24</f>
+        <f t="shared" ref="D34:H34" si="20">D24</f>
         <v>2415000</v>
       </c>
       <c r="E34" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>2535750</v>
       </c>
       <c r="F34" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>2662537.5</v>
       </c>
       <c r="G34" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>2795664.375</v>
       </c>
       <c r="H34" s="18">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>2935447.5937500005</v>
       </c>
     </row>
@@ -3708,27 +3708,27 @@
         <v>42</v>
       </c>
       <c r="C35" s="19">
-        <f t="shared" ref="C35:H35" si="22">C25</f>
+        <f t="shared" ref="C35:H35" si="21">C25</f>
         <v>-2000000</v>
       </c>
       <c r="D35" s="2" t="e">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="21"/>
         <v>#NAME?</v>
       </c>
       <c r="E35" s="2" t="e">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="21"/>
         <v>#NAME?</v>
       </c>
       <c r="F35" s="2" t="e">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="21"/>
         <v>#NAME?</v>
       </c>
       <c r="G35" s="2" t="e">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="21"/>
         <v>#NAME?</v>
       </c>
       <c r="H35" s="12" t="e">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="21"/>
         <v>#NAME?</v>
       </c>
     </row>
@@ -3774,19 +3774,19 @@
         <v>#NAME?</v>
       </c>
       <c r="E37" s="2" t="e">
-        <f t="shared" ref="E37" ca="1" si="23">E36-D36</f>
+        <f t="shared" ref="E37" ca="1" si="22">E36-D36</f>
         <v>#NAME?</v>
       </c>
       <c r="F37" s="2" t="e">
-        <f t="shared" ref="F37" ca="1" si="24">F36-E36</f>
+        <f t="shared" ref="F37" ca="1" si="23">F36-E36</f>
         <v>#NAME?</v>
       </c>
       <c r="G37" s="2" t="e">
-        <f t="shared" ref="G37" ca="1" si="25">G36-F36</f>
+        <f t="shared" ref="G37" ca="1" si="24">G36-F36</f>
         <v>#NAME?</v>
       </c>
       <c r="H37" s="12" t="e">
-        <f t="shared" ref="H37" ca="1" si="26">H36-G36</f>
+        <f t="shared" ref="H37" ca="1" si="25">H36-G36</f>
         <v>#NAME?</v>
       </c>
     </row>
@@ -3828,23 +3828,23 @@
         <v>0</v>
       </c>
       <c r="D39" s="2">
-        <f t="shared" ref="D39:H39" si="27">D19</f>
+        <f t="shared" ref="D39:H39" si="26">D19</f>
         <v>0</v>
       </c>
       <c r="E39" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="F39" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="G39" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="H39" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
@@ -3857,23 +3857,23 @@
         <v>615000</v>
       </c>
       <c r="D40" s="14" t="e">
-        <f t="shared" ref="D40" ca="1" si="28">SUM(D34:D35,D37:D39)</f>
+        <f t="shared" ref="D40" ca="1" si="27">SUM(D34:D35,D37:D39)</f>
         <v>#NAME?</v>
       </c>
       <c r="E40" s="14" t="e">
-        <f t="shared" ref="E40" ca="1" si="29">SUM(E34:E35,E37:E39)</f>
+        <f t="shared" ref="E40" ca="1" si="28">SUM(E34:E35,E37:E39)</f>
         <v>#NAME?</v>
       </c>
       <c r="F40" s="14" t="e">
-        <f t="shared" ref="F40" ca="1" si="30">SUM(F34:F35,F37:F39)</f>
+        <f t="shared" ref="F40" ca="1" si="29">SUM(F34:F35,F37:F39)</f>
         <v>#NAME?</v>
       </c>
       <c r="G40" s="14" t="e">
-        <f t="shared" ref="G40" ca="1" si="31">SUM(G34:G35,G37:G39)</f>
+        <f t="shared" ref="G40" ca="1" si="30">SUM(G34:G35,G37:G39)</f>
         <v>#NAME?</v>
       </c>
       <c r="H40" s="15" t="e">
-        <f t="shared" ref="H40" ca="1" si="32">SUM(H34:H35,H37:H39)</f>
+        <f t="shared" ref="H40" ca="1" si="31">SUM(H34:H35,H37:H39)</f>
         <v>#NAME?</v>
       </c>
     </row>
@@ -3914,23 +3914,23 @@
         <v>2500000</v>
       </c>
       <c r="D44" s="17">
-        <f t="shared" ref="D44:H44" si="33">D4-D24</f>
+        <f t="shared" ref="D44:H44" si="32">D4-D24</f>
         <v>2835000</v>
       </c>
       <c r="E44" s="17">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>2976750</v>
       </c>
       <c r="F44" s="17">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>3125587.5</v>
       </c>
       <c r="G44" s="17">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>3281866.875</v>
       </c>
       <c r="H44" s="18">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>3445960.2187500005</v>
       </c>
     </row>
@@ -3939,27 +3939,27 @@
         <v>42</v>
       </c>
       <c r="C45" s="19">
-        <f t="shared" ref="C45:H45" si="34">C5-C25</f>
+        <f t="shared" ref="C45:H45" si="33">C5-C25</f>
         <v>-2000000</v>
       </c>
       <c r="D45" s="2" t="e">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="33"/>
         <v>#NAME?</v>
       </c>
       <c r="E45" s="2" t="e">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="33"/>
         <v>#NAME?</v>
       </c>
       <c r="F45" s="2" t="e">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="33"/>
         <v>#NAME?</v>
       </c>
       <c r="G45" s="2" t="e">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="33"/>
         <v>#NAME?</v>
       </c>
       <c r="H45" s="12" t="e">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="33"/>
         <v>#NAME?</v>
       </c>
     </row>
@@ -3968,27 +3968,27 @@
         <v>160</v>
       </c>
       <c r="C46" s="19">
-        <f t="shared" ref="C46:H46" si="35">C6-C26</f>
+        <f t="shared" ref="C46:H46" si="34">C6-C26</f>
         <v>-4800000</v>
       </c>
       <c r="D46" s="2" t="e">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="34"/>
         <v>#NAME?</v>
       </c>
       <c r="E46" s="2" t="e">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="34"/>
         <v>#NAME?</v>
       </c>
       <c r="F46" s="2" t="e">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="34"/>
         <v>#NAME?</v>
       </c>
       <c r="G46" s="2" t="e">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="34"/>
         <v>#NAME?</v>
       </c>
       <c r="H46" s="12" t="e">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="34"/>
         <v>#NAME?</v>
       </c>
     </row>
@@ -3997,27 +3997,27 @@
         <v>1</v>
       </c>
       <c r="C47" s="19">
-        <f t="shared" ref="C47:H47" si="36">C7-C27</f>
+        <f t="shared" ref="C47:H47" si="35">C7-C27</f>
         <v>-480000</v>
       </c>
       <c r="D47" s="2" t="e">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="35"/>
         <v>#NAME?</v>
       </c>
       <c r="E47" s="2" t="e">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="35"/>
         <v>#NAME?</v>
       </c>
       <c r="F47" s="2" t="e">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="35"/>
         <v>#NAME?</v>
       </c>
       <c r="G47" s="2" t="e">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="35"/>
         <v>#NAME?</v>
       </c>
       <c r="H47" s="12" t="e">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="35"/>
         <v>#NAME?</v>
       </c>
     </row>
@@ -4026,27 +4026,27 @@
         <v>3</v>
       </c>
       <c r="C48" s="19">
-        <f t="shared" ref="C48:H48" si="37">C8-C28</f>
+        <f t="shared" ref="C48:H48" si="36">C8-C28</f>
         <v>-300000</v>
       </c>
       <c r="D48" s="2">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>-451500</v>
       </c>
       <c r="E48" s="2">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>-474075</v>
       </c>
       <c r="F48" s="2">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>-497778.75</v>
       </c>
       <c r="G48" s="2">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>-522667.6875</v>
       </c>
       <c r="H48" s="12">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>-548801.07187500014</v>
       </c>
     </row>
@@ -4055,27 +4055,27 @@
         <v>24</v>
       </c>
       <c r="C49" s="19">
-        <f t="shared" ref="C49:H49" si="38">C9-C29</f>
+        <f t="shared" ref="C49:H49" si="37">C9-C29</f>
         <v>0</v>
       </c>
       <c r="D49" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="E49" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="F49" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="G49" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="H49" s="12">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
     </row>
@@ -4096,15 +4096,15 @@
         <v>#NAME?</v>
       </c>
       <c r="F50" s="14" t="e">
-        <f t="shared" ref="C50:H50" ca="1" si="39">F10-F30</f>
+        <f t="shared" ref="F50:H50" ca="1" si="38">F10-F30</f>
         <v>#NAME?</v>
       </c>
       <c r="G50" s="14" t="e">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="38"/>
         <v>#NAME?</v>
       </c>
       <c r="H50" s="15" t="e">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="38"/>
         <v>#NAME?</v>
       </c>
     </row>
@@ -4145,23 +4145,23 @@
         <v>2500000</v>
       </c>
       <c r="D54" s="17">
-        <f t="shared" ref="D54:H54" si="40">D14-D34</f>
+        <f t="shared" ref="D54:H54" si="39">D14-D34</f>
         <v>2835000</v>
       </c>
       <c r="E54" s="17">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>2976750</v>
       </c>
       <c r="F54" s="17">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>3125587.5</v>
       </c>
       <c r="G54" s="17">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>3281866.875</v>
       </c>
       <c r="H54" s="18">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>3445960.2187500005</v>
       </c>
     </row>
@@ -4170,27 +4170,27 @@
         <v>42</v>
       </c>
       <c r="C55" s="19">
-        <f t="shared" ref="C55:H55" si="41">C15-C35</f>
+        <f t="shared" ref="C55:H55" si="40">C15-C35</f>
         <v>-2000000</v>
       </c>
       <c r="D55" s="2" t="e">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="40"/>
         <v>#NAME?</v>
       </c>
       <c r="E55" s="2" t="e">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="40"/>
         <v>#NAME?</v>
       </c>
       <c r="F55" s="2" t="e">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="40"/>
         <v>#NAME?</v>
       </c>
       <c r="G55" s="2" t="e">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="40"/>
         <v>#NAME?</v>
       </c>
       <c r="H55" s="12" t="e">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="40"/>
         <v>#NAME?</v>
       </c>
     </row>
@@ -4199,27 +4199,27 @@
         <v>160</v>
       </c>
       <c r="C56" s="19">
-        <f t="shared" ref="C56:H56" si="42">C16-C36</f>
+        <f t="shared" ref="C56:H56" si="41">C16-C36</f>
         <v>-4350000</v>
       </c>
       <c r="D56" s="2" t="e">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="41"/>
         <v>#NAME?</v>
       </c>
       <c r="E56" s="2" t="e">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="41"/>
         <v>#NAME?</v>
       </c>
       <c r="F56" s="2" t="e">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="41"/>
         <v>#NAME?</v>
       </c>
       <c r="G56" s="2" t="e">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="41"/>
         <v>#NAME?</v>
       </c>
       <c r="H56" s="12" t="e">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="41"/>
         <v>#NAME?</v>
       </c>
     </row>
@@ -4228,27 +4228,27 @@
         <v>1</v>
       </c>
       <c r="C57" s="19">
-        <f t="shared" ref="C57:H57" si="43">C17-C37</f>
+        <f t="shared" ref="C57:H57" si="42">C17-C37</f>
         <v>-465000</v>
       </c>
       <c r="D57" s="2" t="e">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="42"/>
         <v>#NAME?</v>
       </c>
       <c r="E57" s="2" t="e">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="42"/>
         <v>#NAME?</v>
       </c>
       <c r="F57" s="2" t="e">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="42"/>
         <v>#NAME?</v>
       </c>
       <c r="G57" s="2" t="e">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="42"/>
         <v>#NAME?</v>
       </c>
       <c r="H57" s="12" t="e">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="42"/>
         <v>#NAME?</v>
       </c>
     </row>
@@ -4257,27 +4257,27 @@
         <v>3</v>
       </c>
       <c r="C58" s="19">
-        <f t="shared" ref="C58:H58" si="44">C18-C38</f>
+        <f t="shared" ref="C58:H58" si="43">C18-C38</f>
         <v>-300000</v>
       </c>
       <c r="D58" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>-451500</v>
       </c>
       <c r="E58" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>-474075</v>
       </c>
       <c r="F58" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>-497778.75</v>
       </c>
       <c r="G58" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>-522667.6875</v>
       </c>
       <c r="H58" s="12">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>-548801.07187500014</v>
       </c>
     </row>
@@ -4286,27 +4286,27 @@
         <v>24</v>
       </c>
       <c r="C59" s="19">
-        <f t="shared" ref="C59:H59" si="45">C19-C39</f>
+        <f t="shared" ref="C59:H59" si="44">C19-C39</f>
         <v>0</v>
       </c>
       <c r="D59" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="E59" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="F59" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="G59" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="H59" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
     </row>
@@ -4315,27 +4315,27 @@
         <v>4</v>
       </c>
       <c r="C60" s="20">
-        <f t="shared" ref="C60:H60" si="46">C20-C40</f>
+        <f t="shared" ref="C60:H60" si="45">C20-C40</f>
         <v>-265000</v>
       </c>
       <c r="D60" s="14" t="e">
-        <f t="shared" ca="1" si="46"/>
+        <f t="shared" ca="1" si="45"/>
         <v>#NAME?</v>
       </c>
       <c r="E60" s="14" t="e">
-        <f t="shared" ca="1" si="46"/>
+        <f t="shared" ca="1" si="45"/>
         <v>#NAME?</v>
       </c>
       <c r="F60" s="14" t="e">
-        <f t="shared" ca="1" si="46"/>
+        <f t="shared" ca="1" si="45"/>
         <v>#NAME?</v>
       </c>
       <c r="G60" s="14" t="e">
-        <f t="shared" ca="1" si="46"/>
+        <f t="shared" ca="1" si="45"/>
         <v>#NAME?</v>
       </c>
       <c r="H60" s="15" t="e">
-        <f t="shared" ca="1" si="46"/>
+        <f t="shared" ca="1" si="45"/>
         <v>#NAME?</v>
       </c>
     </row>
